--- a/db/svd.xlsx
+++ b/db/svd.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>MAX WEIGHT 30,600LBS</t>
-  </si>
-  <si>
     <t>Stockton, CA</t>
-  </si>
-  <si>
-    <t>Lacey, WA</t>
   </si>
   <si>
     <t>Nazareth, PA</t>
@@ -50,10 +44,10 @@
     <t>Bloomfield, CT</t>
   </si>
   <si>
-    <t>Over 24 PLTS or 33,660lbs (spot)</t>
+    <t>Daytona Beach, FL</t>
   </si>
   <si>
-    <t>Daytona Beach, FL</t>
+    <t>Olympia, WA</t>
   </si>
 </sst>
 </file>
@@ -372,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="25" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="29.28515625" bestFit="1" customWidth="1"/>
@@ -465,7 +459,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>225</v>
@@ -534,7 +528,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>335</v>
@@ -603,7 +597,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>375</v>
@@ -672,7 +666,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>360</v>
@@ -741,7 +735,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>285</v>
@@ -810,7 +804,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>465</v>
@@ -879,7 +873,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>425</v>
@@ -952,16 +946,6 @@
       </c>
       <c r="Y8" s="1">
         <v>6850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/db/svd.xlsx
+++ b/db/svd.xlsx
@@ -369,7 +369,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,21 +510,29 @@
         <v>1085</v>
       </c>
       <c r="R2" s="1">
-        <v>1170</v>
+        <v>1300</v>
       </c>
       <c r="S2" s="1">
-        <v>1170</v>
+        <v>1300</v>
       </c>
       <c r="T2" s="1">
-        <v>1170</v>
+        <v>1300</v>
       </c>
       <c r="U2" s="1">
-        <v>1170</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+        <v>1300</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1300</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1300</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1300</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1300</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/db/svd.xlsx
+++ b/db/svd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WPy64-3741\notebooks\spyder\tms-load-robot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,14 +370,15 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -384,77 +386,56 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="2">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -462,142 +443,116 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="D2" s="1">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="E2" s="1">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="F2" s="1">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="G2" s="1">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="H2" s="1">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="I2" s="1">
-        <v>790</v>
+        <v>890</v>
       </c>
       <c r="J2" s="1">
-        <v>815</v>
+        <v>920</v>
       </c>
       <c r="K2" s="1">
-        <v>850</v>
+        <v>960</v>
       </c>
       <c r="L2" s="1">
-        <v>865</v>
+        <v>1050</v>
       </c>
       <c r="M2" s="1">
-        <v>900</v>
+        <v>1140</v>
       </c>
       <c r="N2" s="1">
-        <v>950</v>
+        <v>1210</v>
       </c>
       <c r="O2" s="1">
-        <v>975</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1025</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1085</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1300</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1300</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1300</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1300</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1300</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1300</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1300</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1300</v>
-      </c>
+        <v>1290</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="C3" s="1">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="D3" s="1">
-        <v>825</v>
+        <v>920</v>
       </c>
       <c r="E3" s="1">
-        <v>1060</v>
+        <v>1185</v>
       </c>
       <c r="F3" s="1">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="G3" s="1">
-        <v>1530</v>
+        <v>1710</v>
       </c>
       <c r="H3" s="1">
-        <v>1645</v>
+        <v>1840</v>
       </c>
       <c r="I3" s="1">
-        <v>1800</v>
+        <v>2010</v>
       </c>
       <c r="J3" s="1">
-        <v>1935</v>
+        <v>2160</v>
       </c>
       <c r="K3" s="1">
-        <v>2050</v>
+        <v>2285</v>
       </c>
       <c r="L3" s="1">
-        <v>2250</v>
+        <v>2510</v>
       </c>
       <c r="M3" s="1">
-        <v>2400</v>
+        <v>2680</v>
       </c>
       <c r="N3" s="1">
-        <v>2890</v>
+        <v>3325</v>
       </c>
       <c r="O3" s="1">
-        <v>3000</v>
+        <v>3475</v>
       </c>
       <c r="P3" s="1">
-        <v>3200</v>
+        <v>3710</v>
       </c>
       <c r="Q3" s="1">
-        <v>3410</v>
+        <v>3955</v>
       </c>
       <c r="R3" s="1">
-        <v>3620</v>
-      </c>
-      <c r="S3" s="1">
-        <v>3895</v>
-      </c>
-      <c r="T3" s="1">
-        <v>3895</v>
-      </c>
-      <c r="U3" s="1">
-        <v>3895</v>
-      </c>
+        <v>4280</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -608,65 +563,59 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="C4" s="1">
-        <v>730</v>
+        <v>850</v>
       </c>
       <c r="D4" s="1">
-        <v>1050</v>
+        <v>1280</v>
       </c>
       <c r="E4" s="1">
-        <v>1380</v>
+        <v>1650</v>
       </c>
       <c r="F4" s="1">
-        <v>1700</v>
+        <v>2050</v>
       </c>
       <c r="G4" s="1">
-        <v>1950</v>
+        <v>2440</v>
       </c>
       <c r="H4" s="1">
-        <v>1950</v>
+        <v>2835</v>
       </c>
       <c r="I4" s="1">
-        <v>2560</v>
+        <v>3240</v>
       </c>
       <c r="J4" s="1">
-        <v>2835</v>
+        <v>3620</v>
       </c>
       <c r="K4" s="1">
-        <v>3100</v>
+        <v>4020</v>
       </c>
       <c r="L4" s="1">
-        <v>3410</v>
+        <v>4400</v>
       </c>
       <c r="M4" s="1">
-        <v>3660</v>
+        <v>4800</v>
       </c>
       <c r="N4" s="1">
-        <v>3960</v>
+        <v>5175</v>
       </c>
       <c r="O4" s="1">
-        <v>4260</v>
+        <v>5575</v>
       </c>
       <c r="P4" s="1">
-        <v>4560</v>
+        <v>5940</v>
       </c>
       <c r="Q4" s="1">
-        <v>4860</v>
+        <v>6335</v>
       </c>
       <c r="R4" s="1">
-        <v>5160</v>
-      </c>
-      <c r="S4" s="1">
-        <v>5460</v>
-      </c>
-      <c r="T4" s="1">
-        <v>5800</v>
-      </c>
-      <c r="U4" s="1">
-        <v>6290</v>
-      </c>
+        <v>6715</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -677,65 +626,59 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="D5" s="1">
-        <v>855</v>
+        <v>955</v>
       </c>
       <c r="E5" s="1">
-        <v>1120</v>
+        <v>1250</v>
       </c>
       <c r="F5" s="1">
-        <v>1375</v>
+        <v>1535</v>
       </c>
       <c r="G5" s="1">
-        <v>1620</v>
+        <v>1810</v>
       </c>
       <c r="H5" s="1">
-        <v>1855</v>
+        <v>2070</v>
       </c>
       <c r="I5" s="1">
-        <v>2080</v>
+        <v>2320</v>
       </c>
       <c r="J5" s="1">
-        <v>2295</v>
+        <v>2560</v>
       </c>
       <c r="K5" s="1">
-        <v>2500</v>
+        <v>2780</v>
       </c>
       <c r="L5" s="1">
-        <v>2750</v>
+        <v>3070</v>
       </c>
       <c r="M5" s="1">
-        <v>2940</v>
+        <v>3280</v>
       </c>
       <c r="N5" s="1">
-        <v>3185</v>
+        <v>3655</v>
       </c>
       <c r="O5" s="1">
-        <v>3430</v>
+        <v>3955</v>
       </c>
       <c r="P5" s="1">
-        <v>3705</v>
+        <v>4275</v>
       </c>
       <c r="Q5" s="1">
-        <v>3940</v>
+        <v>4745</v>
       </c>
       <c r="R5" s="1">
-        <v>4165</v>
-      </c>
-      <c r="S5" s="1">
-        <v>4400</v>
-      </c>
-      <c r="T5" s="1">
-        <v>4640</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4785</v>
-      </c>
+        <v>4945</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -746,65 +689,59 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="D6" s="1">
-        <v>810</v>
+        <v>905</v>
       </c>
       <c r="E6" s="1">
-        <v>1060</v>
+        <v>1185</v>
       </c>
       <c r="F6" s="1">
-        <v>1275</v>
+        <v>1425</v>
       </c>
       <c r="G6" s="1">
-        <v>1500</v>
+        <v>1675</v>
       </c>
       <c r="H6" s="1">
-        <v>1715</v>
+        <v>1915</v>
       </c>
       <c r="I6" s="1">
-        <v>1920</v>
+        <v>2140</v>
       </c>
       <c r="J6" s="1">
-        <v>2115</v>
+        <v>2360</v>
       </c>
       <c r="K6" s="1">
-        <v>2300</v>
+        <v>2565</v>
       </c>
       <c r="L6" s="1">
-        <v>2530</v>
+        <v>2820</v>
       </c>
       <c r="M6" s="1">
-        <v>2700</v>
+        <v>3010</v>
       </c>
       <c r="N6" s="1">
-        <v>2925</v>
+        <v>3365</v>
       </c>
       <c r="O6" s="1">
-        <v>3150</v>
+        <v>3645</v>
       </c>
       <c r="P6" s="1">
-        <v>3375</v>
+        <v>3905</v>
       </c>
       <c r="Q6" s="1">
-        <v>3560</v>
+        <v>4320</v>
       </c>
       <c r="R6" s="1">
-        <v>3695</v>
-      </c>
-      <c r="S6" s="1">
-        <v>3790</v>
-      </c>
-      <c r="T6" s="1">
-        <v>3895</v>
-      </c>
-      <c r="U6" s="1">
-        <v>3985</v>
-      </c>
+        <v>4505</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -815,65 +752,59 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="C7" s="1">
-        <v>900</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="1">
-        <v>1325</v>
+        <v>1480</v>
       </c>
       <c r="E7" s="1">
-        <v>1750</v>
+        <v>1955</v>
       </c>
       <c r="F7" s="1">
-        <v>2175</v>
+        <v>2425</v>
       </c>
       <c r="G7" s="1">
-        <v>2550</v>
+        <v>2845</v>
       </c>
       <c r="H7" s="1">
-        <v>2940</v>
+        <v>3280</v>
       </c>
       <c r="I7" s="1">
-        <v>3320</v>
+        <v>3700</v>
       </c>
       <c r="J7" s="1">
-        <v>3690</v>
+        <v>4115</v>
       </c>
       <c r="K7" s="1">
-        <v>4050</v>
+        <v>4515</v>
       </c>
       <c r="L7" s="1">
-        <v>4400</v>
+        <v>4910</v>
       </c>
       <c r="M7" s="1">
-        <v>4740</v>
+        <v>5285</v>
       </c>
       <c r="N7" s="1">
-        <v>5100</v>
+        <v>5790</v>
       </c>
       <c r="O7" s="1">
-        <v>5400</v>
+        <v>6155</v>
       </c>
       <c r="P7" s="1">
-        <v>5750</v>
+        <v>6555</v>
       </c>
       <c r="Q7" s="1">
-        <v>5990</v>
+        <v>7030</v>
       </c>
       <c r="R7" s="1">
-        <v>6175</v>
-      </c>
-      <c r="S7" s="1">
-        <v>6230</v>
-      </c>
-      <c r="T7" s="1">
-        <v>6290</v>
-      </c>
-      <c r="U7" s="1">
-        <v>6350</v>
-      </c>
+        <v>7295</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -884,79 +815,66 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="C8" s="1">
-        <v>800</v>
+        <v>895</v>
       </c>
       <c r="D8" s="1">
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="E8" s="1">
-        <v>1540</v>
+        <v>1720</v>
       </c>
       <c r="F8" s="1">
-        <v>1875</v>
+        <v>2090</v>
       </c>
       <c r="G8" s="1">
-        <v>2200</v>
+        <v>2455</v>
       </c>
       <c r="H8" s="1">
-        <v>2555</v>
+        <v>2850</v>
       </c>
       <c r="I8" s="1">
-        <v>2880</v>
+        <v>3265</v>
       </c>
       <c r="J8" s="1">
-        <v>3190</v>
+        <v>3660</v>
       </c>
       <c r="K8" s="1">
-        <v>3500</v>
+        <v>4005</v>
       </c>
       <c r="L8" s="1">
-        <v>3850</v>
+        <v>4415</v>
       </c>
       <c r="M8" s="1">
-        <v>4140</v>
+        <v>4820</v>
       </c>
       <c r="N8" s="1">
-        <v>4480</v>
+        <v>5195</v>
       </c>
       <c r="O8" s="1">
-        <v>4810</v>
+        <v>5595</v>
       </c>
       <c r="P8" s="1">
-        <v>5150</v>
+        <v>5950</v>
       </c>
       <c r="Q8" s="1">
-        <v>5450</v>
+        <v>6430</v>
       </c>
       <c r="R8" s="1">
-        <v>5650</v>
-      </c>
-      <c r="S8" s="1">
-        <v>5800</v>
-      </c>
-      <c r="T8" s="1">
-        <v>5900</v>
-      </c>
-      <c r="U8" s="1">
-        <v>6075</v>
-      </c>
-      <c r="V8" s="1">
-        <v>6250</v>
-      </c>
-      <c r="W8" s="1">
-        <v>6450</v>
-      </c>
-      <c r="X8" s="1">
-        <v>6650</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>6850</v>
-      </c>
+        <v>6715</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/svd.xlsx
+++ b/db/svd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WinPython\dev\tms-load-robot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,7 +86,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B1" sqref="B1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,11 +378,9 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -487,15 +485,8 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -550,15 +541,8 @@
       <c r="R3" s="1">
         <v>4280</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -613,15 +597,8 @@
       <c r="R4" s="1">
         <v>6715</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -676,15 +653,8 @@
       <c r="R5" s="1">
         <v>4945</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -739,15 +709,8 @@
       <c r="R6" s="1">
         <v>4505</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -802,15 +765,8 @@
       <c r="R7" s="1">
         <v>7295</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -865,13 +821,6 @@
       <c r="R8" s="1">
         <v>6715</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
